--- a/5_logs/R_Progress_Tracker.xlsx
+++ b/5_logs/R_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99548c33b18d328e/Desktop/MPhil in PHS 2025-26/1. ConRR/Notes/ConRR_2025/5_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75376C5-C076-443C-A493-63A6B58AB7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{E75376C5-C076-443C-A493-63A6B58AB7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F4C513F-987D-4F1F-9E31-9D43A888953C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Module / Topic</t>
   </si>
@@ -149,13 +149,28 @@
   </si>
   <si>
     <t>7.6 Exporting</t>
+  </si>
+  <si>
+    <t>CAUTION: use of the package `rio()` and `here()`</t>
+  </si>
+  <si>
+    <t>Know the functions structure by heart and what are the arguments and their order</t>
+  </si>
+  <si>
+    <t>in the data set mtcars I had a particular problem of converting from one class to another. I will revisit how to reclassify a variable</t>
+  </si>
+  <si>
+    <t>there was one question which I didn’t understand</t>
+  </si>
+  <si>
+    <t>I havent worked on this practical as  I didn’t work on it the previous night</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +186,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -204,16 +255,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,10 +580,18 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -548,195 +617,435 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="3">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="3">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45939</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45940</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -744,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -752,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -760,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -768,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -776,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -784,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
